--- a/debug/TRUMP_debug.xlsx
+++ b/debug/TRUMP_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD307"/>
+  <dimension ref="A1:AE307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -568,20 +568,25 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>Stop_Loss</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>cutoff_price</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_name</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_price</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>next_buy_trigger_price</t>
         </is>
@@ -677,17 +682,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA2" t="n">
-        <v/>
-      </c>
-      <c r="AB2" t="inlineStr">
+        <v>12.1581</v>
+      </c>
+      <c r="AB2" t="n">
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>35.8344</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>34.5</v>
       </c>
     </row>
@@ -779,15 +787,18 @@
         <v>13.4379</v>
       </c>
       <c r="AA3" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB3" t="n">
         <v>37.1565</v>
       </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
       <c r="AC3" t="n">
         <v/>
       </c>
       <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
         <v/>
       </c>
     </row>
@@ -875,17 +886,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA4" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB4" t="n">
         <v>37.1565</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>35.8344</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>34.5</v>
       </c>
     </row>
@@ -979,17 +993,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA5" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB5" t="n">
         <v>37.1565</v>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>35.8344</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>30.4</v>
       </c>
     </row>
@@ -1083,17 +1100,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA6" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB6" t="n">
         <v>37.1565</v>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>33.2748</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>30.4</v>
       </c>
     </row>
@@ -1185,15 +1205,18 @@
         <v>13.4379</v>
       </c>
       <c r="AA7" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB7" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
       <c r="AC7" t="n">
         <v/>
       </c>
       <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
         <v/>
       </c>
     </row>
@@ -1281,17 +1304,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA8" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB8" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>33.2748</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>30.4</v>
       </c>
     </row>
@@ -1379,17 +1405,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA9" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB9" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>36.1</v>
       </c>
     </row>
@@ -1477,17 +1506,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA10" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB10" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1581,17 +1613,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA11" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB11" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>33.2748</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>29.1</v>
       </c>
     </row>
@@ -1685,17 +1720,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA12" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB12" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>29.4354</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>29.1</v>
       </c>
     </row>
@@ -1783,17 +1821,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA13" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB13" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>33.2748</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>29.1</v>
       </c>
     </row>
@@ -1887,17 +1928,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA14" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB14" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>26.2359</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>25.71</v>
       </c>
     </row>
@@ -1985,17 +2029,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA15" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB15" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>29.4354</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>25.71</v>
       </c>
     </row>
@@ -2083,17 +2130,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA16" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB16" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>29.4354</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>27.07</v>
       </c>
     </row>
@@ -2181,17 +2231,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA17" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB17" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>26.2359</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>24.58</v>
       </c>
     </row>
@@ -2279,17 +2332,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA18" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB18" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>29.4354</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>26.27</v>
       </c>
     </row>
@@ -2377,17 +2433,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA19" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB19" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>26.26</v>
       </c>
     </row>
@@ -2475,17 +2534,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA20" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB20" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>26.2359</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>25.77</v>
       </c>
     </row>
@@ -2573,17 +2635,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA21" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB21" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>26.2359</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>23.62</v>
       </c>
     </row>
@@ -2677,17 +2742,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA22" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB22" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>22.3965</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>18.56</v>
       </c>
     </row>
@@ -2775,17 +2843,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA23" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB23" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>22.3965</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>18.56</v>
       </c>
     </row>
@@ -2873,17 +2944,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA24" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB24" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>22.3965</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>19.38</v>
       </c>
     </row>
@@ -2977,17 +3051,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA25" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB25" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>17.9172</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3075,17 +3152,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA26" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB26" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>17.9172</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3173,17 +3253,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA27" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB27" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>17.9172</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
         <v>16.29</v>
       </c>
     </row>
@@ -3271,17 +3354,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA28" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB28" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>17.9172</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="n">
         <v>17.19</v>
       </c>
     </row>
@@ -3369,17 +3455,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA29" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB29" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>17.9172</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AE29" t="n">
         <v>16.82</v>
       </c>
     </row>
@@ -3467,17 +3556,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA30" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB30" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>17.9172</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AE30" t="n">
         <v>16.15</v>
       </c>
     </row>
@@ -3565,17 +3657,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA31" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB31" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AE31" t="n">
         <v>16.2</v>
       </c>
     </row>
@@ -3663,17 +3758,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA32" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB32" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>17.9172</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="n">
         <v>15.27</v>
       </c>
     </row>
@@ -3761,17 +3859,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA33" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB33" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="n">
         <v>14.27</v>
       </c>
     </row>
@@ -3859,17 +3960,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA34" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB34" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC34" t="n">
+      <c r="AD34" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AE34" t="n">
         <v>15.22</v>
       </c>
     </row>
@@ -3957,17 +4061,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA35" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB35" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AE35" t="n">
         <v>14.46</v>
       </c>
     </row>
@@ -4055,17 +4162,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA36" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB36" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC36" t="n">
+      <c r="AD36" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AE36" t="n">
         <v>15.3</v>
       </c>
     </row>
@@ -4153,17 +4263,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA37" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB37" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC37" t="n">
+      <c r="AD37" t="n">
         <v>22.3965</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AE37" t="n">
         <v>15.83</v>
       </c>
     </row>
@@ -4251,17 +4364,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA38" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB38" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC38" t="n">
+      <c r="AD38" t="n">
         <v>22.3965</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AE38" t="n">
         <v>18.09</v>
       </c>
     </row>
@@ -4349,17 +4465,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA39" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB39" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AE39" t="n">
         <v>18.22</v>
       </c>
     </row>
@@ -4447,17 +4566,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA40" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB40" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="AC40" t="n">
+      <c r="AD40" t="n">
         <v>17.9172</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AE40" t="n">
         <v>16.82</v>
       </c>
     </row>
@@ -4545,17 +4667,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA41" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB41" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC41" t="n">
+      <c r="AD41" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AE41" t="n">
         <v>15.61</v>
       </c>
     </row>
@@ -4643,17 +4768,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA42" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB42" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC42" t="n">
+      <c r="AD42" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AE42" t="n">
         <v>16.06</v>
       </c>
     </row>
@@ -4741,17 +4869,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA43" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB43" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC43" t="n">
+      <c r="AD43" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AE43" t="n">
         <v>16.57</v>
       </c>
     </row>
@@ -4839,17 +4970,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA44" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB44" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC44" t="n">
+      <c r="AD44" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AE44" t="n">
         <v>15.67</v>
       </c>
     </row>
@@ -4937,17 +5071,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA45" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB45" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC45" t="n">
+      <c r="AD45" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AE45" t="n">
         <v>15.74</v>
       </c>
     </row>
@@ -5035,17 +5172,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA46" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB46" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC46" t="n">
+      <c r="AD46" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AE46" t="n">
         <v>15.81</v>
       </c>
     </row>
@@ -5139,17 +5279,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA47" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB47" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC47" t="n">
+      <c r="AD47" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AE47" t="n">
         <v>12.17</v>
       </c>
     </row>
@@ -5237,17 +5380,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA48" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB48" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC48" t="n">
+      <c r="AD48" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AE48" t="n">
         <v>12.17</v>
       </c>
     </row>
@@ -5335,17 +5481,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA49" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB49" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC49" t="n">
+      <c r="AD49" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AE49" t="n">
         <v>12.31</v>
       </c>
     </row>
@@ -5433,15 +5582,18 @@
         <v>13.4379</v>
       </c>
       <c r="AA50" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB50" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB50" t="n">
-        <v/>
-      </c>
       <c r="AC50" t="n">
         <v/>
       </c>
       <c r="AD50" t="n">
+        <v/>
+      </c>
+      <c r="AE50" t="n">
         <v>12.41</v>
       </c>
     </row>
@@ -5529,17 +5681,20 @@
         <v>13.4379</v>
       </c>
       <c r="AA51" t="n">
+        <v>12.1581</v>
+      </c>
+      <c r="AB51" t="n">
         <v>35.6592</v>
       </c>
-      <c r="AB51" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC51" t="n">
+      <c r="AD51" t="n">
         <v>13.4379</v>
       </c>
-      <c r="AD51" t="n">
+      <c r="AE51" t="n">
         <v>12.31</v>
       </c>
     </row>
@@ -5631,7 +5786,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA52" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB52" t="n">
         <v/>
@@ -5640,6 +5795,9 @@
         <v/>
       </c>
       <c r="AD52" t="n">
+        <v/>
+      </c>
+      <c r="AE52" t="n">
         <v/>
       </c>
     </row>
@@ -5727,7 +5885,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA53" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB53" t="n">
         <v/>
@@ -5736,6 +5894,9 @@
         <v/>
       </c>
       <c r="AD53" t="n">
+        <v/>
+      </c>
+      <c r="AE53" t="n">
         <v>11.06</v>
       </c>
     </row>
@@ -5823,7 +5984,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA54" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB54" t="n">
         <v/>
@@ -5832,6 +5993,9 @@
         <v/>
       </c>
       <c r="AD54" t="n">
+        <v/>
+      </c>
+      <c r="AE54" t="n">
         <v>12.67</v>
       </c>
     </row>
@@ -5919,7 +6083,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA55" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB55" t="n">
         <v/>
@@ -5928,6 +6092,9 @@
         <v/>
       </c>
       <c r="AD55" t="n">
+        <v/>
+      </c>
+      <c r="AE55" t="n">
         <v>13.13</v>
       </c>
     </row>
@@ -6015,7 +6182,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA56" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB56" t="n">
         <v/>
@@ -6024,6 +6191,9 @@
         <v/>
       </c>
       <c r="AD56" t="n">
+        <v/>
+      </c>
+      <c r="AE56" t="n">
         <v>12.33</v>
       </c>
     </row>
@@ -6111,7 +6281,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA57" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB57" t="n">
         <v/>
@@ -6120,6 +6290,9 @@
         <v/>
       </c>
       <c r="AD57" t="n">
+        <v/>
+      </c>
+      <c r="AE57" t="n">
         <v>11.67</v>
       </c>
     </row>
@@ -6207,7 +6380,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA58" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB58" t="n">
         <v/>
@@ -6216,6 +6389,9 @@
         <v/>
       </c>
       <c r="AD58" t="n">
+        <v/>
+      </c>
+      <c r="AE58" t="n">
         <v>12.66</v>
       </c>
     </row>
@@ -6303,7 +6479,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA59" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB59" t="n">
         <v/>
@@ -6312,6 +6488,9 @@
         <v/>
       </c>
       <c r="AD59" t="n">
+        <v/>
+      </c>
+      <c r="AE59" t="n">
         <v>12.85</v>
       </c>
     </row>
@@ -6399,7 +6578,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA60" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB60" t="n">
         <v/>
@@ -6408,6 +6587,9 @@
         <v/>
       </c>
       <c r="AD60" t="n">
+        <v/>
+      </c>
+      <c r="AE60" t="n">
         <v>12.18</v>
       </c>
     </row>
@@ -6495,7 +6677,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA61" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB61" t="n">
         <v/>
@@ -6504,6 +6686,9 @@
         <v/>
       </c>
       <c r="AD61" t="n">
+        <v/>
+      </c>
+      <c r="AE61" t="n">
         <v>11.71</v>
       </c>
     </row>
@@ -6591,7 +6776,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA62" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB62" t="n">
         <v/>
@@ -6600,6 +6785,9 @@
         <v/>
       </c>
       <c r="AD62" t="n">
+        <v/>
+      </c>
+      <c r="AE62" t="n">
         <v>10.48</v>
       </c>
     </row>
@@ -6687,7 +6875,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA63" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB63" t="n">
         <v/>
@@ -6696,6 +6884,9 @@
         <v/>
       </c>
       <c r="AD63" t="n">
+        <v/>
+      </c>
+      <c r="AE63" t="n">
         <v>10.18</v>
       </c>
     </row>
@@ -6783,7 +6974,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA64" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB64" t="n">
         <v/>
@@ -6792,6 +6983,9 @@
         <v/>
       </c>
       <c r="AD64" t="n">
+        <v/>
+      </c>
+      <c r="AE64" t="n">
         <v>9.539999999999999</v>
       </c>
     </row>
@@ -6879,7 +7073,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA65" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB65" t="n">
         <v/>
@@ -6888,6 +7082,9 @@
         <v/>
       </c>
       <c r="AD65" t="n">
+        <v/>
+      </c>
+      <c r="AE65" t="n">
         <v>10.04</v>
       </c>
     </row>
@@ -6975,7 +7172,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA66" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB66" t="n">
         <v/>
@@ -6984,6 +7181,9 @@
         <v/>
       </c>
       <c r="AD66" t="n">
+        <v/>
+      </c>
+      <c r="AE66" t="n">
         <v>10.27</v>
       </c>
     </row>
@@ -7071,7 +7271,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA67" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB67" t="n">
         <v/>
@@ -7080,6 +7280,9 @@
         <v/>
       </c>
       <c r="AD67" t="n">
+        <v/>
+      </c>
+      <c r="AE67" t="n">
         <v>10.67</v>
       </c>
     </row>
@@ -7167,7 +7370,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA68" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB68" t="n">
         <v/>
@@ -7176,6 +7379,9 @@
         <v/>
       </c>
       <c r="AD68" t="n">
+        <v/>
+      </c>
+      <c r="AE68" t="n">
         <v>11.83</v>
       </c>
     </row>
@@ -7263,7 +7469,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA69" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB69" t="n">
         <v/>
@@ -7272,6 +7478,9 @@
         <v/>
       </c>
       <c r="AD69" t="n">
+        <v/>
+      </c>
+      <c r="AE69" t="n">
         <v>11.05</v>
       </c>
     </row>
@@ -7359,7 +7568,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA70" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB70" t="n">
         <v/>
@@ -7368,6 +7577,9 @@
         <v/>
       </c>
       <c r="AD70" t="n">
+        <v/>
+      </c>
+      <c r="AE70" t="n">
         <v>11.11</v>
       </c>
     </row>
@@ -7455,7 +7667,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA71" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB71" t="n">
         <v/>
@@ -7464,6 +7676,9 @@
         <v/>
       </c>
       <c r="AD71" t="n">
+        <v/>
+      </c>
+      <c r="AE71" t="n">
         <v>10.78</v>
       </c>
     </row>
@@ -7551,7 +7766,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA72" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB72" t="n">
         <v/>
@@ -7560,6 +7775,9 @@
         <v/>
       </c>
       <c r="AD72" t="n">
+        <v/>
+      </c>
+      <c r="AE72" t="n">
         <v>10.9</v>
       </c>
     </row>
@@ -7647,7 +7865,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA73" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB73" t="n">
         <v/>
@@ -7656,6 +7874,9 @@
         <v/>
       </c>
       <c r="AD73" t="n">
+        <v/>
+      </c>
+      <c r="AE73" t="n">
         <v>10.99</v>
       </c>
     </row>
@@ -7743,7 +7964,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA74" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB74" t="n">
         <v/>
@@ -7752,6 +7973,9 @@
         <v/>
       </c>
       <c r="AD74" t="n">
+        <v/>
+      </c>
+      <c r="AE74" t="n">
         <v>10.66</v>
       </c>
     </row>
@@ -7839,7 +8063,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA75" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB75" t="n">
         <v/>
@@ -7848,6 +8072,9 @@
         <v/>
       </c>
       <c r="AD75" t="n">
+        <v/>
+      </c>
+      <c r="AE75" t="n">
         <v>10.67</v>
       </c>
     </row>
@@ -7935,7 +8162,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA76" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB76" t="n">
         <v/>
@@ -7944,6 +8171,9 @@
         <v/>
       </c>
       <c r="AD76" t="n">
+        <v/>
+      </c>
+      <c r="AE76" t="n">
         <v>10.69</v>
       </c>
     </row>
@@ -8031,7 +8261,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA77" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB77" t="n">
         <v/>
@@ -8040,6 +8270,9 @@
         <v/>
       </c>
       <c r="AD77" t="n">
+        <v/>
+      </c>
+      <c r="AE77" t="n">
         <v>11.37</v>
       </c>
     </row>
@@ -8127,7 +8360,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA78" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB78" t="n">
         <v/>
@@ -8136,6 +8369,9 @@
         <v/>
       </c>
       <c r="AD78" t="n">
+        <v/>
+      </c>
+      <c r="AE78" t="n">
         <v>11.29</v>
       </c>
     </row>
@@ -8223,7 +8459,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA79" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB79" t="n">
         <v/>
@@ -8232,6 +8468,9 @@
         <v/>
       </c>
       <c r="AD79" t="n">
+        <v/>
+      </c>
+      <c r="AE79" t="n">
         <v>11.21</v>
       </c>
     </row>
@@ -8319,7 +8558,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA80" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB80" t="n">
         <v/>
@@ -8328,6 +8567,9 @@
         <v/>
       </c>
       <c r="AD80" t="n">
+        <v/>
+      </c>
+      <c r="AE80" t="n">
         <v>11.02</v>
       </c>
     </row>
@@ -8415,7 +8657,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA81" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB81" t="n">
         <v/>
@@ -8424,6 +8666,9 @@
         <v/>
       </c>
       <c r="AD81" t="n">
+        <v/>
+      </c>
+      <c r="AE81" t="n">
         <v>10.1</v>
       </c>
     </row>
@@ -8511,7 +8756,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA82" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB82" t="n">
         <v/>
@@ -8520,6 +8765,9 @@
         <v/>
       </c>
       <c r="AD82" t="n">
+        <v/>
+      </c>
+      <c r="AE82" t="n">
         <v>9.84</v>
       </c>
     </row>
@@ -8607,7 +8855,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA83" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB83" t="n">
         <v/>
@@ -8616,6 +8864,9 @@
         <v/>
       </c>
       <c r="AD83" t="n">
+        <v/>
+      </c>
+      <c r="AE83" t="n">
         <v>9.960000000000001</v>
       </c>
     </row>
@@ -8703,7 +8954,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA84" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB84" t="n">
         <v/>
@@ -8712,6 +8963,9 @@
         <v/>
       </c>
       <c r="AD84" t="n">
+        <v/>
+      </c>
+      <c r="AE84" t="n">
         <v>9.880000000000001</v>
       </c>
     </row>
@@ -8799,7 +9053,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA85" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB85" t="n">
         <v/>
@@ -8808,6 +9062,9 @@
         <v/>
       </c>
       <c r="AD85" t="n">
+        <v/>
+      </c>
+      <c r="AE85" t="n">
         <v>9.949999999999999</v>
       </c>
     </row>
@@ -8895,7 +9152,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA86" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB86" t="n">
         <v/>
@@ -8904,6 +9161,9 @@
         <v/>
       </c>
       <c r="AD86" t="n">
+        <v/>
+      </c>
+      <c r="AE86" t="n">
         <v>8.970000000000001</v>
       </c>
     </row>
@@ -8991,7 +9251,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA87" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB87" t="n">
         <v/>
@@ -9000,6 +9260,9 @@
         <v/>
       </c>
       <c r="AD87" t="n">
+        <v/>
+      </c>
+      <c r="AE87" t="n">
         <v>8.74</v>
       </c>
     </row>
@@ -9087,7 +9350,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA88" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB88" t="n">
         <v/>
@@ -9096,6 +9359,9 @@
         <v/>
       </c>
       <c r="AD88" t="n">
+        <v/>
+      </c>
+      <c r="AE88" t="n">
         <v>9.109999999999999</v>
       </c>
     </row>
@@ -9183,7 +9449,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA89" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB89" t="n">
         <v/>
@@ -9192,6 +9458,9 @@
         <v/>
       </c>
       <c r="AD89" t="n">
+        <v/>
+      </c>
+      <c r="AE89" t="n">
         <v>9.06</v>
       </c>
     </row>
@@ -9279,7 +9548,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA90" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB90" t="n">
         <v/>
@@ -9288,6 +9557,9 @@
         <v/>
       </c>
       <c r="AD90" t="n">
+        <v/>
+      </c>
+      <c r="AE90" t="n">
         <v>7.72</v>
       </c>
     </row>
@@ -9375,7 +9647,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA91" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB91" t="n">
         <v/>
@@ -9384,6 +9656,9 @@
         <v/>
       </c>
       <c r="AD91" t="n">
+        <v/>
+      </c>
+      <c r="AE91" t="n">
         <v>7.14</v>
       </c>
     </row>
@@ -9471,7 +9746,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA92" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB92" t="n">
         <v/>
@@ -9480,6 +9755,9 @@
         <v/>
       </c>
       <c r="AD92" t="n">
+        <v/>
+      </c>
+      <c r="AE92" t="n">
         <v>7.44</v>
       </c>
     </row>
@@ -9567,7 +9845,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA93" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB93" t="n">
         <v/>
@@ -9576,6 +9854,9 @@
         <v/>
       </c>
       <c r="AD93" t="n">
+        <v/>
+      </c>
+      <c r="AE93" t="n">
         <v>7.22</v>
       </c>
     </row>
@@ -9663,7 +9944,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA94" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB94" t="n">
         <v/>
@@ -9672,6 +9953,9 @@
         <v/>
       </c>
       <c r="AD94" t="n">
+        <v/>
+      </c>
+      <c r="AE94" t="n">
         <v>7.66</v>
       </c>
     </row>
@@ -9759,7 +10043,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA95" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB95" t="n">
         <v/>
@@ -9768,6 +10052,9 @@
         <v/>
       </c>
       <c r="AD95" t="n">
+        <v/>
+      </c>
+      <c r="AE95" t="n">
         <v>7.88</v>
       </c>
     </row>
@@ -9855,7 +10142,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA96" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB96" t="n">
         <v/>
@@ -9864,6 +10151,9 @@
         <v/>
       </c>
       <c r="AD96" t="n">
+        <v/>
+      </c>
+      <c r="AE96" t="n">
         <v>7.94</v>
       </c>
     </row>
@@ -9951,7 +10241,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA97" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB97" t="n">
         <v/>
@@ -9960,6 +10250,9 @@
         <v/>
       </c>
       <c r="AD97" t="n">
+        <v/>
+      </c>
+      <c r="AE97" t="n">
         <v>8.050000000000001</v>
       </c>
     </row>
@@ -10047,7 +10340,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA98" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB98" t="n">
         <v/>
@@ -10056,6 +10349,9 @@
         <v/>
       </c>
       <c r="AD98" t="n">
+        <v/>
+      </c>
+      <c r="AE98" t="n">
         <v>7.81</v>
       </c>
     </row>
@@ -10143,7 +10439,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA99" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB99" t="n">
         <v/>
@@ -10152,6 +10448,9 @@
         <v/>
       </c>
       <c r="AD99" t="n">
+        <v/>
+      </c>
+      <c r="AE99" t="n">
         <v>7.77</v>
       </c>
     </row>
@@ -10239,7 +10538,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA100" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB100" t="n">
         <v/>
@@ -10248,6 +10547,9 @@
         <v/>
       </c>
       <c r="AD100" t="n">
+        <v/>
+      </c>
+      <c r="AE100" t="n">
         <v>7.57</v>
       </c>
     </row>
@@ -10335,7 +10637,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA101" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB101" t="n">
         <v/>
@@ -10344,6 +10646,9 @@
         <v/>
       </c>
       <c r="AD101" t="n">
+        <v/>
+      </c>
+      <c r="AE101" t="n">
         <v>7.39</v>
       </c>
     </row>
@@ -10431,7 +10736,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA102" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB102" t="n">
         <v/>
@@ -10440,6 +10745,9 @@
         <v/>
       </c>
       <c r="AD102" t="n">
+        <v/>
+      </c>
+      <c r="AE102" t="n">
         <v>7.47</v>
       </c>
     </row>
@@ -10527,7 +10835,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA103" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB103" t="n">
         <v/>
@@ -10536,6 +10844,9 @@
         <v/>
       </c>
       <c r="AD103" t="n">
+        <v/>
+      </c>
+      <c r="AE103" t="n">
         <v>7.75</v>
       </c>
     </row>
@@ -10623,7 +10934,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA104" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB104" t="n">
         <v/>
@@ -10632,6 +10943,9 @@
         <v/>
       </c>
       <c r="AD104" t="n">
+        <v/>
+      </c>
+      <c r="AE104" t="n">
         <v>8.02</v>
       </c>
     </row>
@@ -10719,7 +11033,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA105" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB105" t="n">
         <v/>
@@ -10728,6 +11042,9 @@
         <v/>
       </c>
       <c r="AD105" t="n">
+        <v/>
+      </c>
+      <c r="AE105" t="n">
         <v>8.140000000000001</v>
       </c>
     </row>
@@ -10815,7 +11132,7 @@
         <v>13.4379</v>
       </c>
       <c r="AA106" t="n">
-        <v/>
+        <v>12.1581</v>
       </c>
       <c r="AB106" t="n">
         <v/>
@@ -10824,6 +11141,9 @@
         <v/>
       </c>
       <c r="AD106" t="n">
+        <v/>
+      </c>
+      <c r="AE106" t="n">
         <v>8.140000000000001</v>
       </c>
     </row>
@@ -10915,7 +11235,7 @@
         <v>3.3957</v>
       </c>
       <c r="AA107" t="n">
-        <v/>
+        <v>3.0723</v>
       </c>
       <c r="AB107" t="n">
         <v/>
@@ -10924,6 +11244,9 @@
         <v/>
       </c>
       <c r="AD107" t="n">
+        <v/>
+      </c>
+      <c r="AE107" t="n">
         <v/>
       </c>
     </row>
@@ -11013,17 +11336,20 @@
         <v>3.3957</v>
       </c>
       <c r="AA108" t="n">
-        <v/>
-      </c>
-      <c r="AB108" t="inlineStr">
+        <v>3.0723</v>
+      </c>
+      <c r="AB108" t="n">
+        <v/>
+      </c>
+      <c r="AC108" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC108" t="n">
+      <c r="AD108" t="n">
         <v>3.3957</v>
       </c>
-      <c r="AD108" t="n">
+      <c r="AE108" t="n">
         <v>9.130000000000001</v>
       </c>
     </row>
@@ -11111,17 +11437,20 @@
         <v>3.3957</v>
       </c>
       <c r="AA109" t="n">
-        <v/>
-      </c>
-      <c r="AB109" t="inlineStr">
+        <v>3.0723</v>
+      </c>
+      <c r="AB109" t="n">
+        <v/>
+      </c>
+      <c r="AC109" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC109" t="n">
+      <c r="AD109" t="n">
         <v>3.3957</v>
       </c>
-      <c r="AD109" t="n">
+      <c r="AE109" t="n">
         <v>11.56</v>
       </c>
     </row>
@@ -11209,17 +11538,20 @@
         <v>3.3957</v>
       </c>
       <c r="AA110" t="n">
-        <v/>
-      </c>
-      <c r="AB110" t="inlineStr">
+        <v>3.0723</v>
+      </c>
+      <c r="AB110" t="n">
+        <v/>
+      </c>
+      <c r="AC110" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC110" t="n">
+      <c r="AD110" t="n">
         <v>3.3957</v>
       </c>
-      <c r="AD110" t="n">
+      <c r="AE110" t="n">
         <v>11.79</v>
       </c>
     </row>
@@ -11307,17 +11639,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA111" t="n">
-        <v/>
-      </c>
-      <c r="AB111" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB111" t="n">
+        <v/>
+      </c>
+      <c r="AC111" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC111" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD111" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE111" t="n">
         <v>13.22</v>
       </c>
     </row>
@@ -11405,17 +11740,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA112" t="n">
-        <v/>
-      </c>
-      <c r="AB112" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB112" t="n">
+        <v/>
+      </c>
+      <c r="AC112" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC112" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD112" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE112" t="n">
         <v>14.24</v>
       </c>
     </row>
@@ -11503,17 +11841,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA113" t="n">
-        <v/>
-      </c>
-      <c r="AB113" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB113" t="n">
+        <v/>
+      </c>
+      <c r="AC113" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC113" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD113" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE113" t="n">
         <v>14.12</v>
       </c>
     </row>
@@ -11601,17 +11942,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA114" t="n">
-        <v/>
-      </c>
-      <c r="AB114" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB114" t="n">
+        <v/>
+      </c>
+      <c r="AC114" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC114" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD114" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE114" t="n">
         <v>12.69</v>
       </c>
     </row>
@@ -11699,17 +12043,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA115" t="n">
-        <v/>
-      </c>
-      <c r="AB115" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB115" t="n">
+        <v/>
+      </c>
+      <c r="AC115" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC115" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD115" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE115" t="n">
         <v>12.02</v>
       </c>
     </row>
@@ -11797,17 +12144,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA116" t="n">
-        <v/>
-      </c>
-      <c r="AB116" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB116" t="n">
+        <v/>
+      </c>
+      <c r="AC116" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC116" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD116" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE116" t="n">
         <v>12.56</v>
       </c>
     </row>
@@ -11895,17 +12245,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA117" t="n">
-        <v/>
-      </c>
-      <c r="AB117" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB117" t="n">
+        <v/>
+      </c>
+      <c r="AC117" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC117" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD117" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE117" t="n">
         <v>12.31</v>
       </c>
     </row>
@@ -11993,17 +12346,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA118" t="n">
-        <v/>
-      </c>
-      <c r="AB118" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB118" t="n">
+        <v/>
+      </c>
+      <c r="AC118" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC118" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD118" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE118" t="n">
         <v>10.35</v>
       </c>
     </row>
@@ -12091,17 +12447,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA119" t="n">
-        <v/>
-      </c>
-      <c r="AB119" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB119" t="n">
+        <v/>
+      </c>
+      <c r="AC119" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC119" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD119" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE119" t="n">
         <v>10.75</v>
       </c>
     </row>
@@ -12189,17 +12548,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA120" t="n">
-        <v/>
-      </c>
-      <c r="AB120" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB120" t="n">
+        <v/>
+      </c>
+      <c r="AC120" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC120" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD120" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE120" t="n">
         <v>10.76</v>
       </c>
     </row>
@@ -12287,17 +12649,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA121" t="n">
-        <v/>
-      </c>
-      <c r="AB121" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB121" t="n">
+        <v/>
+      </c>
+      <c r="AC121" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC121" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD121" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE121" t="n">
         <v>10.37</v>
       </c>
     </row>
@@ -12385,17 +12750,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA122" t="n">
-        <v/>
-      </c>
-      <c r="AB122" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB122" t="n">
+        <v/>
+      </c>
+      <c r="AC122" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC122" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD122" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE122" t="n">
         <v>10.66</v>
       </c>
     </row>
@@ -12483,17 +12851,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA123" t="n">
-        <v/>
-      </c>
-      <c r="AB123" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB123" t="n">
+        <v/>
+      </c>
+      <c r="AC123" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC123" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD123" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE123" t="n">
         <v>10.96</v>
       </c>
     </row>
@@ -12581,17 +12952,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA124" t="n">
-        <v/>
-      </c>
-      <c r="AB124" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB124" t="n">
+        <v/>
+      </c>
+      <c r="AC124" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC124" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD124" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE124" t="n">
         <v>12.42</v>
       </c>
     </row>
@@ -12679,17 +13053,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA125" t="n">
-        <v/>
-      </c>
-      <c r="AB125" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB125" t="n">
+        <v/>
+      </c>
+      <c r="AC125" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC125" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD125" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE125" t="n">
         <v>13.72</v>
       </c>
     </row>
@@ -12777,17 +13154,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA126" t="n">
-        <v/>
-      </c>
-      <c r="AB126" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB126" t="n">
+        <v/>
+      </c>
+      <c r="AC126" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC126" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD126" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE126" t="n">
         <v>13.35</v>
       </c>
     </row>
@@ -12875,17 +13255,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA127" t="n">
-        <v/>
-      </c>
-      <c r="AB127" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB127" t="n">
+        <v/>
+      </c>
+      <c r="AC127" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC127" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD127" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE127" t="n">
         <v>12.16</v>
       </c>
     </row>
@@ -12973,17 +13356,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA128" t="n">
-        <v/>
-      </c>
-      <c r="AB128" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB128" t="n">
+        <v/>
+      </c>
+      <c r="AC128" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC128" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD128" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE128" t="n">
         <v>12.28</v>
       </c>
     </row>
@@ -13071,17 +13457,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA129" t="n">
-        <v/>
-      </c>
-      <c r="AB129" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB129" t="n">
+        <v/>
+      </c>
+      <c r="AC129" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC129" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD129" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE129" t="n">
         <v>12.93</v>
       </c>
     </row>
@@ -13169,17 +13558,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA130" t="n">
-        <v/>
-      </c>
-      <c r="AB130" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB130" t="n">
+        <v/>
+      </c>
+      <c r="AC130" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC130" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD130" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE130" t="n">
         <v>12.34</v>
       </c>
     </row>
@@ -13267,17 +13659,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA131" t="n">
-        <v/>
-      </c>
-      <c r="AB131" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB131" t="n">
+        <v/>
+      </c>
+      <c r="AC131" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC131" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD131" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE131" t="n">
         <v>12.44</v>
       </c>
     </row>
@@ -13365,17 +13760,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA132" t="n">
-        <v/>
-      </c>
-      <c r="AB132" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB132" t="n">
+        <v/>
+      </c>
+      <c r="AC132" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC132" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD132" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE132" t="n">
         <v>12.21</v>
       </c>
     </row>
@@ -13463,17 +13861,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA133" t="n">
-        <v/>
-      </c>
-      <c r="AB133" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB133" t="n">
+        <v/>
+      </c>
+      <c r="AC133" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC133" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD133" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE133" t="n">
         <v>12.6</v>
       </c>
     </row>
@@ -13561,17 +13962,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA134" t="n">
-        <v/>
-      </c>
-      <c r="AB134" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB134" t="n">
+        <v/>
+      </c>
+      <c r="AC134" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC134" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD134" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE134" t="n">
         <v>12.32</v>
       </c>
     </row>
@@ -13659,17 +14063,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA135" t="n">
-        <v/>
-      </c>
-      <c r="AB135" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB135" t="n">
+        <v/>
+      </c>
+      <c r="AC135" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC135" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD135" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE135" t="n">
         <v>12.7</v>
       </c>
     </row>
@@ -13757,17 +14164,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA136" t="n">
-        <v/>
-      </c>
-      <c r="AB136" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB136" t="n">
+        <v/>
+      </c>
+      <c r="AC136" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC136" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD136" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE136" t="n">
         <v>13.85</v>
       </c>
     </row>
@@ -13855,17 +14265,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA137" t="n">
-        <v/>
-      </c>
-      <c r="AB137" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB137" t="n">
+        <v/>
+      </c>
+      <c r="AC137" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC137" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD137" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE137" t="n">
         <v>13.91</v>
       </c>
     </row>
@@ -13953,17 +14366,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA138" t="n">
-        <v/>
-      </c>
-      <c r="AB138" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB138" t="n">
+        <v/>
+      </c>
+      <c r="AC138" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC138" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD138" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE138" t="n">
         <v>12.4</v>
       </c>
     </row>
@@ -14051,17 +14467,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA139" t="n">
-        <v/>
-      </c>
-      <c r="AB139" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB139" t="n">
+        <v/>
+      </c>
+      <c r="AC139" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC139" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD139" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE139" t="n">
         <v>12.44</v>
       </c>
     </row>
@@ -14149,17 +14568,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA140" t="n">
-        <v/>
-      </c>
-      <c r="AB140" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB140" t="n">
+        <v/>
+      </c>
+      <c r="AC140" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC140" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD140" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE140" t="n">
         <v>12.27</v>
       </c>
     </row>
@@ -14247,17 +14669,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA141" t="n">
-        <v/>
-      </c>
-      <c r="AB141" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB141" t="n">
+        <v/>
+      </c>
+      <c r="AC141" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC141" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD141" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE141" t="n">
         <v>12.54</v>
       </c>
     </row>
@@ -14345,17 +14770,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA142" t="n">
-        <v/>
-      </c>
-      <c r="AB142" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB142" t="n">
+        <v/>
+      </c>
+      <c r="AC142" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC142" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD142" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE142" t="n">
         <v>12.36</v>
       </c>
     </row>
@@ -14443,17 +14871,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA143" t="n">
-        <v/>
-      </c>
-      <c r="AB143" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB143" t="n">
+        <v/>
+      </c>
+      <c r="AC143" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC143" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD143" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE143" t="n">
         <v>12.04</v>
       </c>
     </row>
@@ -14541,17 +14972,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA144" t="n">
-        <v/>
-      </c>
-      <c r="AB144" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB144" t="n">
+        <v/>
+      </c>
+      <c r="AC144" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC144" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD144" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE144" t="n">
         <v>11.84</v>
       </c>
     </row>
@@ -14639,17 +15073,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA145" t="n">
-        <v/>
-      </c>
-      <c r="AB145" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB145" t="n">
+        <v/>
+      </c>
+      <c r="AC145" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC145" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD145" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE145" t="n">
         <v>10.66</v>
       </c>
     </row>
@@ -14737,17 +15174,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA146" t="n">
-        <v/>
-      </c>
-      <c r="AB146" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB146" t="n">
+        <v/>
+      </c>
+      <c r="AC146" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC146" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD146" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE146" t="n">
         <v>10.42</v>
       </c>
     </row>
@@ -14835,17 +15275,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA147" t="n">
-        <v/>
-      </c>
-      <c r="AB147" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB147" t="n">
+        <v/>
+      </c>
+      <c r="AC147" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC147" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD147" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE147" t="n">
         <v>10.94</v>
       </c>
     </row>
@@ -14933,17 +15376,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA148" t="n">
-        <v/>
-      </c>
-      <c r="AB148" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB148" t="n">
+        <v/>
+      </c>
+      <c r="AC148" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC148" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD148" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE148" t="n">
         <v>11.02</v>
       </c>
     </row>
@@ -15031,17 +15477,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA149" t="n">
-        <v/>
-      </c>
-      <c r="AB149" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB149" t="n">
+        <v/>
+      </c>
+      <c r="AC149" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC149" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD149" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE149" t="n">
         <v>11.08</v>
       </c>
     </row>
@@ -15129,17 +15578,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA150" t="n">
-        <v/>
-      </c>
-      <c r="AB150" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB150" t="n">
+        <v/>
+      </c>
+      <c r="AC150" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC150" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD150" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE150" t="n">
         <v>10.73</v>
       </c>
     </row>
@@ -15227,17 +15679,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA151" t="n">
-        <v/>
-      </c>
-      <c r="AB151" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB151" t="n">
+        <v/>
+      </c>
+      <c r="AC151" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC151" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD151" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE151" t="n">
         <v>9.32</v>
       </c>
     </row>
@@ -15325,17 +15780,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA152" t="n">
-        <v/>
-      </c>
-      <c r="AB152" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB152" t="n">
+        <v/>
+      </c>
+      <c r="AC152" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC152" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD152" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE152" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>
@@ -15423,17 +15881,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA153" t="n">
-        <v/>
-      </c>
-      <c r="AB153" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB153" t="n">
+        <v/>
+      </c>
+      <c r="AC153" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC153" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD153" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE153" t="n">
         <v>10.03</v>
       </c>
     </row>
@@ -15521,17 +15982,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA154" t="n">
-        <v/>
-      </c>
-      <c r="AB154" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB154" t="n">
+        <v/>
+      </c>
+      <c r="AC154" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC154" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD154" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE154" t="n">
         <v>10.18</v>
       </c>
     </row>
@@ -15619,17 +16083,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA155" t="n">
-        <v/>
-      </c>
-      <c r="AB155" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB155" t="n">
+        <v/>
+      </c>
+      <c r="AC155" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC155" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD155" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE155" t="n">
         <v>10.26</v>
       </c>
     </row>
@@ -15717,17 +16184,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA156" t="n">
-        <v/>
-      </c>
-      <c r="AB156" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB156" t="n">
+        <v/>
+      </c>
+      <c r="AC156" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC156" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD156" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE156" t="n">
         <v>10.59</v>
       </c>
     </row>
@@ -15815,17 +16285,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA157" t="n">
-        <v/>
-      </c>
-      <c r="AB157" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB157" t="n">
+        <v/>
+      </c>
+      <c r="AC157" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC157" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD157" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE157" t="n">
         <v>10.54</v>
       </c>
     </row>
@@ -15913,17 +16386,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA158" t="n">
-        <v/>
-      </c>
-      <c r="AB158" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB158" t="n">
+        <v/>
+      </c>
+      <c r="AC158" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC158" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD158" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE158" t="n">
         <v>9.890000000000001</v>
       </c>
     </row>
@@ -16011,17 +16487,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA159" t="n">
-        <v/>
-      </c>
-      <c r="AB159" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB159" t="n">
+        <v/>
+      </c>
+      <c r="AC159" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC159" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD159" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE159" t="n">
         <v>9.67</v>
       </c>
     </row>
@@ -16109,17 +16588,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA160" t="n">
-        <v/>
-      </c>
-      <c r="AB160" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB160" t="n">
+        <v/>
+      </c>
+      <c r="AC160" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC160" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD160" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE160" t="n">
         <v>9.859999999999999</v>
       </c>
     </row>
@@ -16207,17 +16689,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA161" t="n">
-        <v/>
-      </c>
-      <c r="AB161" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB161" t="n">
+        <v/>
+      </c>
+      <c r="AC161" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC161" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD161" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE161" t="n">
         <v>9.81</v>
       </c>
     </row>
@@ -16305,17 +16790,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA162" t="n">
-        <v/>
-      </c>
-      <c r="AB162" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB162" t="n">
+        <v/>
+      </c>
+      <c r="AC162" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC162" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD162" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE162" t="n">
         <v>9.56</v>
       </c>
     </row>
@@ -16403,17 +16891,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA163" t="n">
-        <v/>
-      </c>
-      <c r="AB163" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB163" t="n">
+        <v/>
+      </c>
+      <c r="AC163" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC163" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD163" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE163" t="n">
         <v>9.32</v>
       </c>
     </row>
@@ -16507,17 +16998,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA164" t="n">
-        <v/>
-      </c>
-      <c r="AB164" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB164" t="n">
+        <v/>
+      </c>
+      <c r="AC164" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC164" t="n">
+      <c r="AD164" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD164" t="n">
+      <c r="AE164" t="n">
         <v>9.1</v>
       </c>
     </row>
@@ -16605,17 +17099,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA165" t="n">
-        <v/>
-      </c>
-      <c r="AB165" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB165" t="n">
+        <v/>
+      </c>
+      <c r="AC165" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC165" t="n">
+      <c r="AD165" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD165" t="n">
+      <c r="AE165" t="n">
         <v>9.1</v>
       </c>
     </row>
@@ -16703,17 +17200,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA166" t="n">
-        <v/>
-      </c>
-      <c r="AB166" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB166" t="n">
+        <v/>
+      </c>
+      <c r="AC166" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC166" t="n">
+      <c r="AD166" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD166" t="n">
+      <c r="AE166" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
@@ -16801,17 +17301,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA167" t="n">
-        <v/>
-      </c>
-      <c r="AB167" t="inlineStr">
+        <v>3.1236</v>
+      </c>
+      <c r="AB167" t="n">
+        <v/>
+      </c>
+      <c r="AC167" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC167" t="n">
+      <c r="AD167" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD167" t="n">
+      <c r="AE167" t="n">
         <v>8.890000000000001</v>
       </c>
     </row>
@@ -16903,15 +17406,18 @@
         <v>3.4524</v>
       </c>
       <c r="AA168" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB168" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB168" t="n">
-        <v/>
-      </c>
       <c r="AC168" t="n">
         <v/>
       </c>
       <c r="AD168" t="n">
+        <v/>
+      </c>
+      <c r="AE168" t="n">
         <v/>
       </c>
     </row>
@@ -16999,17 +17505,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA169" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB169" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB169" t="inlineStr">
+      <c r="AC169" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC169" t="n">
+      <c r="AD169" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD169" t="n">
+      <c r="AE169" t="n">
         <v>8.57</v>
       </c>
     </row>
@@ -17103,17 +17612,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA170" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB170" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB170" t="inlineStr">
+      <c r="AC170" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC170" t="n">
+      <c r="AD170" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD170" t="n">
+      <c r="AE170" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
@@ -17201,17 +17713,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA171" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB171" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB171" t="inlineStr">
+      <c r="AC171" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC171" t="n">
+      <c r="AD171" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD171" t="n">
+      <c r="AE171" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
@@ -17299,17 +17814,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA172" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB172" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB172" t="inlineStr">
+      <c r="AC172" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC172" t="n">
+      <c r="AD172" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD172" t="n">
+      <c r="AE172" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -17397,17 +17915,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA173" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB173" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB173" t="inlineStr">
+      <c r="AC173" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC173" t="n">
+      <c r="AD173" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD173" t="n">
+      <c r="AE173" t="n">
         <v>9.140000000000001</v>
       </c>
     </row>
@@ -17495,17 +18016,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA174" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB174" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB174" t="inlineStr">
+      <c r="AC174" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC174" t="n">
+      <c r="AD174" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD174" t="n">
+      <c r="AE174" t="n">
         <v>8.880000000000001</v>
       </c>
     </row>
@@ -17593,17 +18117,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA175" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB175" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB175" t="inlineStr">
+      <c r="AC175" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC175" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD175" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE175" t="n">
         <v>8.75</v>
       </c>
     </row>
@@ -17691,17 +18218,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA176" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB176" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB176" t="inlineStr">
+      <c r="AC176" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC176" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD176" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE176" t="n">
         <v>8.84</v>
       </c>
     </row>
@@ -17789,17 +18319,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA177" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB177" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB177" t="inlineStr">
+      <c r="AC177" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC177" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD177" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE177" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>
@@ -17887,17 +18420,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA178" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB178" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB178" t="inlineStr">
+      <c r="AC178" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC178" t="n">
+      <c r="AD178" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD178" t="n">
+      <c r="AE178" t="n">
         <v>8.99</v>
       </c>
     </row>
@@ -17985,17 +18521,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA179" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB179" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB179" t="inlineStr">
+      <c r="AC179" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC179" t="n">
+      <c r="AD179" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD179" t="n">
+      <c r="AE179" t="n">
         <v>8.81</v>
       </c>
     </row>
@@ -18083,17 +18622,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA180" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB180" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB180" t="inlineStr">
+      <c r="AC180" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC180" t="n">
+      <c r="AD180" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD180" t="n">
+      <c r="AE180" t="n">
         <v>8.51</v>
       </c>
     </row>
@@ -18181,17 +18723,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA181" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB181" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB181" t="inlineStr">
+      <c r="AC181" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC181" t="n">
+      <c r="AD181" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD181" t="n">
+      <c r="AE181" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -18279,17 +18824,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA182" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB182" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB182" t="inlineStr">
+      <c r="AC182" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC182" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD182" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE182" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -18377,17 +18925,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA183" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB183" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB183" t="inlineStr">
+      <c r="AC183" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC183" t="n">
+      <c r="AD183" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD183" t="n">
+      <c r="AE183" t="n">
         <v>8.449999999999999</v>
       </c>
     </row>
@@ -18475,17 +19026,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA184" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB184" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB184" t="inlineStr">
+      <c r="AC184" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC184" t="n">
+      <c r="AD184" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD184" t="n">
+      <c r="AE184" t="n">
         <v>8.43</v>
       </c>
     </row>
@@ -18573,17 +19127,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA185" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB185" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB185" t="inlineStr">
+      <c r="AC185" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC185" t="n">
+      <c r="AD185" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD185" t="n">
+      <c r="AE185" t="n">
         <v>8.460000000000001</v>
       </c>
     </row>
@@ -18671,17 +19228,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA186" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB186" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB186" t="inlineStr">
+      <c r="AC186" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC186" t="n">
+      <c r="AD186" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD186" t="n">
+      <c r="AE186" t="n">
         <v>8.51</v>
       </c>
     </row>
@@ -18769,17 +19329,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA187" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB187" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB187" t="inlineStr">
+      <c r="AC187" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC187" t="n">
+      <c r="AD187" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD187" t="n">
+      <c r="AE187" t="n">
         <v>8.44</v>
       </c>
     </row>
@@ -18867,17 +19430,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA188" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB188" t="n">
         <v>9.229889999999999</v>
       </c>
-      <c r="AB188" t="inlineStr">
+      <c r="AC188" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC188" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD188" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE188" t="n">
         <v>8.56</v>
       </c>
     </row>
@@ -18969,15 +19535,18 @@
         <v>3.4524</v>
       </c>
       <c r="AA189" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB189" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB189" t="n">
-        <v/>
-      </c>
       <c r="AC189" t="n">
         <v/>
       </c>
       <c r="AD189" t="n">
+        <v/>
+      </c>
+      <c r="AE189" t="n">
         <v/>
       </c>
     </row>
@@ -19065,17 +19634,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA190" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB190" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB190" t="inlineStr">
+      <c r="AC190" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC190" t="n">
+      <c r="AD190" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD190" t="n">
+      <c r="AE190" t="n">
         <v>8.970000000000001</v>
       </c>
     </row>
@@ -19163,17 +19735,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA191" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB191" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB191" t="inlineStr">
+      <c r="AC191" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC191" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD191" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE191" t="n">
         <v>9.65</v>
       </c>
     </row>
@@ -19261,17 +19836,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA192" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB192" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB192" t="inlineStr">
+      <c r="AC192" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC192" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD192" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE192" t="n">
         <v>9.369999999999999</v>
       </c>
     </row>
@@ -19359,17 +19937,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA193" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB193" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB193" t="inlineStr">
+      <c r="AC193" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC193" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD193" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE193" t="n">
         <v>9.460000000000001</v>
       </c>
     </row>
@@ -19457,17 +20038,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA194" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB194" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB194" t="inlineStr">
+      <c r="AC194" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC194" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD194" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE194" t="n">
         <v>9.23</v>
       </c>
     </row>
@@ -19561,17 +20145,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA195" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB195" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB195" t="inlineStr">
+      <c r="AC195" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC195" t="n">
+      <c r="AD195" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD195" t="n">
+      <c r="AE195" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19663,15 +20250,18 @@
         <v>3.4524</v>
       </c>
       <c r="AA196" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB196" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB196" t="n">
-        <v/>
-      </c>
       <c r="AC196" t="n">
         <v/>
       </c>
       <c r="AD196" t="n">
+        <v/>
+      </c>
+      <c r="AE196" t="n">
         <v/>
       </c>
     </row>
@@ -19759,17 +20349,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA197" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB197" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB197" t="inlineStr">
+      <c r="AC197" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC197" t="n">
+      <c r="AD197" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD197" t="n">
+      <c r="AE197" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19857,17 +20450,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA198" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB198" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB198" t="inlineStr">
+      <c r="AC198" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC198" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD198" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE198" t="n">
         <v>9.34</v>
       </c>
     </row>
@@ -19955,17 +20551,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA199" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB199" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB199" t="inlineStr">
+      <c r="AC199" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC199" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD199" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE199" t="n">
         <v>9.6</v>
       </c>
     </row>
@@ -20053,17 +20652,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA200" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB200" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB200" t="inlineStr">
+      <c r="AC200" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC200" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD200" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE200" t="n">
         <v>9.77</v>
       </c>
     </row>
@@ -20151,17 +20753,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA201" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB201" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB201" t="inlineStr">
+      <c r="AC201" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC201" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD201" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE201" t="n">
         <v>9.75</v>
       </c>
     </row>
@@ -20249,17 +20854,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA202" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB202" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB202" t="inlineStr">
+      <c r="AC202" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC202" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD202" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE202" t="n">
         <v>10.09</v>
       </c>
     </row>
@@ -20347,17 +20955,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA203" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB203" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB203" t="inlineStr">
+      <c r="AC203" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC203" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD203" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE203" t="n">
         <v>10.45</v>
       </c>
     </row>
@@ -20445,17 +21056,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA204" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB204" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB204" t="inlineStr">
+      <c r="AC204" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC204" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD204" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE204" t="n">
         <v>10.54</v>
       </c>
     </row>
@@ -20543,17 +21157,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA205" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB205" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB205" t="inlineStr">
+      <c r="AC205" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC205" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD205" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE205" t="n">
         <v>9.800000000000001</v>
       </c>
     </row>
@@ -20641,17 +21258,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA206" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB206" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB206" t="inlineStr">
+      <c r="AC206" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC206" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD206" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE206" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -20739,17 +21359,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA207" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB207" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB207" t="inlineStr">
+      <c r="AC207" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC207" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD207" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE207" t="n">
         <v>9.640000000000001</v>
       </c>
     </row>
@@ -20837,17 +21460,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA208" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB208" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB208" t="inlineStr">
+      <c r="AC208" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC208" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD208" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE208" t="n">
         <v>10</v>
       </c>
     </row>
@@ -20935,17 +21561,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA209" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB209" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB209" t="inlineStr">
+      <c r="AC209" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC209" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD209" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE209" t="n">
         <v>10.03</v>
       </c>
     </row>
@@ -21033,17 +21662,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA210" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB210" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB210" t="inlineStr">
+      <c r="AC210" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC210" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD210" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE210" t="n">
         <v>9.66</v>
       </c>
     </row>
@@ -21131,17 +21763,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA211" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB211" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB211" t="inlineStr">
+      <c r="AC211" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC211" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD211" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE211" t="n">
         <v>9.31</v>
       </c>
     </row>
@@ -21235,17 +21870,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA212" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB212" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB212" t="inlineStr">
+      <c r="AC212" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC212" t="n">
+      <c r="AD212" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD212" t="n">
+      <c r="AE212" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -21337,15 +21975,18 @@
         <v>3.4524</v>
       </c>
       <c r="AA213" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB213" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB213" t="n">
-        <v/>
-      </c>
       <c r="AC213" t="n">
         <v/>
       </c>
       <c r="AD213" t="n">
+        <v/>
+      </c>
+      <c r="AE213" t="n">
         <v/>
       </c>
     </row>
@@ -21433,17 +22074,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA214" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB214" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB214" t="inlineStr">
+      <c r="AC214" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC214" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD214" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE214" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -21531,17 +22175,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA215" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB215" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB215" t="inlineStr">
+      <c r="AC215" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC215" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD215" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE215" t="n">
         <v>8.91</v>
       </c>
     </row>
@@ -21635,17 +22282,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA216" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB216" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB216" t="inlineStr">
+      <c r="AC216" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC216" t="n">
+      <c r="AD216" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD216" t="n">
+      <c r="AE216" t="n">
         <v>8.49</v>
       </c>
     </row>
@@ -21733,17 +22383,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA217" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB217" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB217" t="inlineStr">
+      <c r="AC217" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC217" t="n">
+      <c r="AD217" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD217" t="n">
+      <c r="AE217" t="n">
         <v>8.49</v>
       </c>
     </row>
@@ -21831,17 +22484,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA218" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB218" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB218" t="inlineStr">
+      <c r="AC218" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC218" t="n">
+      <c r="AD218" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD218" t="n">
+      <c r="AE218" t="n">
         <v>8.43</v>
       </c>
     </row>
@@ -21929,17 +22585,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA219" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB219" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB219" t="inlineStr">
+      <c r="AC219" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC219" t="n">
+      <c r="AD219" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD219" t="n">
+      <c r="AE219" t="n">
         <v>8.51</v>
       </c>
     </row>
@@ -22027,17 +22686,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA220" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB220" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB220" t="inlineStr">
+      <c r="AC220" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC220" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD220" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE220" t="n">
         <v>8.81</v>
       </c>
     </row>
@@ -22125,17 +22787,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA221" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB221" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB221" t="inlineStr">
+      <c r="AC221" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC221" t="n">
+      <c r="AD221" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD221" t="n">
+      <c r="AE221" t="n">
         <v>8.539999999999999</v>
       </c>
     </row>
@@ -22223,17 +22888,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA222" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB222" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB222" t="inlineStr">
+      <c r="AC222" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC222" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD222" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE222" t="n">
         <v>8.58</v>
       </c>
     </row>
@@ -22321,17 +22989,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA223" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB223" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB223" t="inlineStr">
+      <c r="AC223" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC223" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD223" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE223" t="n">
         <v>8.789999999999999</v>
       </c>
     </row>
@@ -22419,17 +23090,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA224" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB224" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB224" t="inlineStr">
+      <c r="AC224" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC224" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD224" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE224" t="n">
         <v>9.109999999999999</v>
       </c>
     </row>
@@ -22517,17 +23191,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA225" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB225" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB225" t="inlineStr">
+      <c r="AC225" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC225" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD225" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE225" t="n">
         <v>9.380000000000001</v>
       </c>
     </row>
@@ -22615,17 +23292,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA226" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB226" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB226" t="inlineStr">
+      <c r="AC226" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC226" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD226" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE226" t="n">
         <v>9.09</v>
       </c>
     </row>
@@ -22713,17 +23393,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA227" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB227" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB227" t="inlineStr">
+      <c r="AC227" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC227" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD227" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE227" t="n">
         <v>8.73</v>
       </c>
     </row>
@@ -22811,17 +23494,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA228" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB228" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB228" t="inlineStr">
+      <c r="AC228" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC228" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD228" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE228" t="n">
         <v>8.699999999999999</v>
       </c>
     </row>
@@ -22909,17 +23595,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA229" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB229" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB229" t="inlineStr">
+      <c r="AC229" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC229" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD229" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE229" t="n">
         <v>9.1</v>
       </c>
     </row>
@@ -23011,15 +23700,18 @@
         <v>3.4524</v>
       </c>
       <c r="AA230" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB230" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB230" t="n">
-        <v/>
-      </c>
       <c r="AC230" t="n">
         <v/>
       </c>
       <c r="AD230" t="n">
+        <v/>
+      </c>
+      <c r="AE230" t="n">
         <v/>
       </c>
     </row>
@@ -23107,17 +23799,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA231" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB231" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB231" t="inlineStr">
+      <c r="AC231" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC231" t="n">
+      <c r="AD231" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD231" t="n">
+      <c r="AE231" t="n">
         <v>8.74</v>
       </c>
     </row>
@@ -23211,17 +23906,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA232" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB232" t="n">
         <v>9.735900000000001</v>
       </c>
-      <c r="AB232" t="inlineStr">
+      <c r="AC232" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC232" t="n">
+      <c r="AD232" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD232" t="n">
+      <c r="AE232" t="n">
         <v>8.84</v>
       </c>
     </row>
@@ -23313,15 +24011,18 @@
         <v>3.4524</v>
       </c>
       <c r="AA233" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB233" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB233" t="n">
-        <v/>
-      </c>
       <c r="AC233" t="n">
         <v/>
       </c>
       <c r="AD233" t="n">
+        <v/>
+      </c>
+      <c r="AE233" t="n">
         <v/>
       </c>
     </row>
@@ -23409,17 +24110,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA234" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB234" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB234" t="inlineStr">
+      <c r="AC234" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC234" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD234" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE234" t="n">
         <v>8.84</v>
       </c>
     </row>
@@ -23507,17 +24211,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA235" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB235" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB235" t="inlineStr">
+      <c r="AC235" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC235" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD235" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE235" t="n">
         <v>9.01</v>
       </c>
     </row>
@@ -23605,17 +24312,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA236" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB236" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB236" t="inlineStr">
+      <c r="AC236" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC236" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD236" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE236" t="n">
         <v>9.050000000000001</v>
       </c>
     </row>
@@ -23703,17 +24413,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA237" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB237" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB237" t="inlineStr">
+      <c r="AC237" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC237" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD237" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE237" t="n">
         <v>8.880000000000001</v>
       </c>
     </row>
@@ -23801,17 +24514,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA238" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB238" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB238" t="inlineStr">
+      <c r="AC238" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC238" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD238" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE238" t="n">
         <v>8.59</v>
       </c>
     </row>
@@ -23899,17 +24615,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA239" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB239" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB239" t="inlineStr">
+      <c r="AC239" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC239" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD239" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE239" t="n">
         <v>8.56</v>
       </c>
     </row>
@@ -24003,17 +24722,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA240" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB240" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB240" t="inlineStr">
+      <c r="AC240" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC240" t="n">
+      <c r="AD240" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD240" t="n">
+      <c r="AE240" t="n">
         <v>8.31</v>
       </c>
     </row>
@@ -24101,17 +24823,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA241" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB241" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB241" t="inlineStr">
+      <c r="AC241" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC241" t="n">
+      <c r="AD241" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD241" t="n">
+      <c r="AE241" t="n">
         <v>8.31</v>
       </c>
     </row>
@@ -24199,17 +24924,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA242" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB242" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB242" t="inlineStr">
+      <c r="AC242" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC242" t="n">
+      <c r="AD242" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD242" t="n">
+      <c r="AE242" t="n">
         <v>8.210000000000001</v>
       </c>
     </row>
@@ -24297,17 +25025,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA243" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB243" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB243" t="inlineStr">
+      <c r="AC243" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC243" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD243" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE243" t="n">
         <v>8.69</v>
       </c>
     </row>
@@ -24395,17 +25126,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA244" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB244" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB244" t="inlineStr">
+      <c r="AC244" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC244" t="n">
+      <c r="AD244" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD244" t="n">
+      <c r="AE244" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>
@@ -24493,17 +25227,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA245" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB245" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB245" t="inlineStr">
+      <c r="AC245" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC245" t="n">
+      <c r="AD245" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD245" t="n">
+      <c r="AE245" t="n">
         <v>8.02</v>
       </c>
     </row>
@@ -24591,17 +25328,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA246" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB246" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB246" t="inlineStr">
+      <c r="AC246" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC246" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD246" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE246" t="n">
         <v>8.109999999999999</v>
       </c>
     </row>
@@ -24689,17 +25429,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA247" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB247" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB247" t="inlineStr">
+      <c r="AC247" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC247" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD247" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE247" t="n">
         <v>8.35</v>
       </c>
     </row>
@@ -24787,17 +25530,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA248" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB248" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB248" t="inlineStr">
+      <c r="AC248" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC248" t="n">
+      <c r="AD248" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD248" t="n">
+      <c r="AE248" t="n">
         <v>8.35</v>
       </c>
     </row>
@@ -24885,17 +25631,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA249" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB249" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB249" t="inlineStr">
+      <c r="AC249" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC249" t="n">
+      <c r="AD249" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD249" t="n">
+      <c r="AE249" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -24983,17 +25732,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA250" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB250" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB250" t="inlineStr">
+      <c r="AC250" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC250" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD250" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE250" t="n">
         <v>8.23</v>
       </c>
     </row>
@@ -25081,17 +25833,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA251" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB251" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB251" t="inlineStr">
+      <c r="AC251" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC251" t="n">
+      <c r="AD251" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD251" t="n">
+      <c r="AE251" t="n">
         <v>8.359999999999999</v>
       </c>
     </row>
@@ -25179,17 +25934,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA252" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB252" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB252" t="inlineStr">
+      <c r="AC252" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC252" t="n">
+      <c r="AD252" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD252" t="n">
+      <c r="AE252" t="n">
         <v>8.220000000000001</v>
       </c>
     </row>
@@ -25277,17 +26035,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA253" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB253" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB253" t="inlineStr">
+      <c r="AC253" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC253" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD253" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE253" t="n">
         <v>8.24</v>
       </c>
     </row>
@@ -25375,17 +26136,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA254" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB254" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB254" t="inlineStr">
+      <c r="AC254" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC254" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD254" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE254" t="n">
         <v>8.35</v>
       </c>
     </row>
@@ -25473,17 +26237,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA255" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB255" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB255" t="inlineStr">
+      <c r="AC255" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC255" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD255" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE255" t="n">
         <v>8.140000000000001</v>
       </c>
     </row>
@@ -25571,17 +26338,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA256" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB256" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB256" t="inlineStr">
+      <c r="AC256" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC256" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD256" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE256" t="n">
         <v>8.26</v>
       </c>
     </row>
@@ -25669,17 +26439,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA257" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB257" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB257" t="inlineStr">
+      <c r="AC257" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC257" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD257" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE257" t="n">
         <v>8.279999999999999</v>
       </c>
     </row>
@@ -25767,17 +26540,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA258" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB258" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB258" t="inlineStr">
+      <c r="AC258" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC258" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD258" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE258" t="n">
         <v>8.35</v>
       </c>
     </row>
@@ -25865,17 +26641,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA259" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB259" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB259" t="inlineStr">
+      <c r="AC259" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC259" t="n">
+      <c r="AD259" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD259" t="n">
+      <c r="AE259" t="n">
         <v>8.44</v>
       </c>
     </row>
@@ -25963,17 +26742,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA260" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB260" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB260" t="inlineStr">
+      <c r="AC260" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC260" t="n">
+      <c r="AD260" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD260" t="n">
+      <c r="AE260" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>
@@ -26061,17 +26843,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA261" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB261" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB261" t="inlineStr">
+      <c r="AC261" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC261" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD261" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE261" t="n">
         <v>8.609999999999999</v>
       </c>
     </row>
@@ -26159,17 +26944,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA262" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB262" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB262" t="inlineStr">
+      <c r="AC262" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC262" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD262" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE262" t="n">
         <v>8.619999999999999</v>
       </c>
     </row>
@@ -26257,17 +27045,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA263" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB263" t="n">
         <v>8.9391</v>
       </c>
-      <c r="AB263" t="inlineStr">
+      <c r="AC263" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC263" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD263" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE263" t="n">
         <v>8.77</v>
       </c>
     </row>
@@ -26359,15 +27150,18 @@
         <v>3.4524</v>
       </c>
       <c r="AA264" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB264" t="n">
         <v>9.40746</v>
       </c>
-      <c r="AB264" t="n">
-        <v/>
-      </c>
       <c r="AC264" t="n">
         <v/>
       </c>
       <c r="AD264" t="n">
+        <v/>
+      </c>
+      <c r="AE264" t="n">
         <v/>
       </c>
     </row>
@@ -26455,17 +27249,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA265" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB265" t="n">
         <v>9.40746</v>
       </c>
-      <c r="AB265" t="inlineStr">
+      <c r="AC265" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC265" t="n">
+      <c r="AD265" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD265" t="n">
+      <c r="AE265" t="n">
         <v>8.94</v>
       </c>
     </row>
@@ -26559,17 +27356,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA266" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB266" t="n">
         <v>9.40746</v>
       </c>
-      <c r="AB266" t="inlineStr">
+      <c r="AC266" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC266" t="n">
+      <c r="AD266" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD266" t="n">
+      <c r="AE266" t="n">
         <v>8.640000000000001</v>
       </c>
     </row>
@@ -26661,15 +27461,18 @@
         <v>3.4524</v>
       </c>
       <c r="AA267" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB267" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB267" t="n">
-        <v/>
-      </c>
       <c r="AC267" t="n">
         <v/>
       </c>
       <c r="AD267" t="n">
+        <v/>
+      </c>
+      <c r="AE267" t="n">
         <v/>
       </c>
     </row>
@@ -26757,17 +27560,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA268" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB268" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB268" t="inlineStr">
+      <c r="AC268" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="AC268" t="n">
+      <c r="AD268" t="n">
         <v>9.2064</v>
       </c>
-      <c r="AD268" t="n">
+      <c r="AE268" t="n">
         <v>8.640000000000001</v>
       </c>
     </row>
@@ -26861,17 +27667,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA269" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB269" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB269" t="inlineStr">
+      <c r="AC269" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC269" t="n">
+      <c r="AD269" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD269" t="n">
+      <c r="AE269" t="n">
         <v>8.390000000000001</v>
       </c>
     </row>
@@ -26959,17 +27768,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA270" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB270" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB270" t="inlineStr">
+      <c r="AC270" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC270" t="n">
+      <c r="AD270" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD270" t="n">
+      <c r="AE270" t="n">
         <v>8.390000000000001</v>
       </c>
     </row>
@@ -27057,17 +27869,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA271" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB271" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB271" t="inlineStr">
+      <c r="AC271" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC271" t="n">
+      <c r="AD271" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD271" t="n">
+      <c r="AE271" t="n">
         <v>8.42</v>
       </c>
     </row>
@@ -27155,17 +27970,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA272" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB272" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB272" t="inlineStr">
+      <c r="AC272" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC272" t="n">
+      <c r="AD272" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD272" t="n">
+      <c r="AE272" t="n">
         <v>8.449999999999999</v>
       </c>
     </row>
@@ -27253,17 +28071,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA273" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB273" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB273" t="inlineStr">
+      <c r="AC273" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC273" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD273" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE273" t="n">
         <v>8.609999999999999</v>
       </c>
     </row>
@@ -27351,17 +28172,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA274" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB274" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB274" t="inlineStr">
+      <c r="AC274" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="AC274" t="n">
+      <c r="AD274" t="n">
         <v>8.5488</v>
       </c>
-      <c r="AD274" t="n">
+      <c r="AE274" t="n">
         <v>8.35</v>
       </c>
     </row>
@@ -27449,17 +28273,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA275" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB275" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB275" t="inlineStr">
+      <c r="AC275" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC275" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD275" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE275" t="n">
         <v>8.369999999999999</v>
       </c>
     </row>
@@ -27547,17 +28374,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA276" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB276" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB276" t="inlineStr">
+      <c r="AC276" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC276" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD276" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE276" t="n">
         <v>8.33</v>
       </c>
     </row>
@@ -27651,17 +28481,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA277" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB277" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB277" t="inlineStr">
+      <c r="AC277" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC277" t="n">
+      <c r="AD277" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD277" t="n">
+      <c r="AE277" t="n">
         <v>6.88</v>
       </c>
     </row>
@@ -27749,17 +28582,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA278" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB278" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB278" t="inlineStr">
+      <c r="AC278" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC278" t="n">
+      <c r="AD278" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD278" t="n">
+      <c r="AE278" t="n">
         <v>6.88</v>
       </c>
     </row>
@@ -27847,17 +28683,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA279" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB279" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB279" t="inlineStr">
+      <c r="AC279" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC279" t="n">
+      <c r="AD279" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD279" t="n">
+      <c r="AE279" t="n">
         <v>7.55</v>
       </c>
     </row>
@@ -27945,17 +28784,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA280" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB280" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB280" t="inlineStr">
+      <c r="AC280" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC280" t="n">
+      <c r="AD280" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD280" t="n">
+      <c r="AE280" t="n">
         <v>7.49</v>
       </c>
     </row>
@@ -28043,17 +28885,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA281" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB281" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB281" t="inlineStr">
+      <c r="AC281" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC281" t="n">
+      <c r="AD281" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD281" t="n">
+      <c r="AE281" t="n">
         <v>7.31</v>
       </c>
     </row>
@@ -28141,17 +28986,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA282" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB282" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB282" t="inlineStr">
+      <c r="AC282" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC282" t="n">
+      <c r="AD282" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD282" t="n">
+      <c r="AE282" t="n">
         <v>7.39</v>
       </c>
     </row>
@@ -28239,17 +29087,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA283" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB283" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB283" t="inlineStr">
+      <c r="AC283" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC283" t="n">
+      <c r="AD283" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD283" t="n">
+      <c r="AE283" t="n">
         <v>7.48</v>
       </c>
     </row>
@@ -28337,17 +29188,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA284" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB284" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB284" t="inlineStr">
+      <c r="AC284" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC284" t="n">
+      <c r="AD284" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD284" t="n">
+      <c r="AE284" t="n">
         <v>7.42</v>
       </c>
     </row>
@@ -28435,17 +29289,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA285" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB285" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB285" t="inlineStr">
+      <c r="AC285" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC285" t="n">
+      <c r="AD285" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD285" t="n">
+      <c r="AE285" t="n">
         <v>7.49</v>
       </c>
     </row>
@@ -28533,17 +29390,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA286" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB286" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB286" t="inlineStr">
+      <c r="AC286" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC286" t="n">
+      <c r="AD286" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD286" t="n">
+      <c r="AE286" t="n">
         <v>7.22</v>
       </c>
     </row>
@@ -28631,17 +29491,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA287" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB287" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB287" t="inlineStr">
+      <c r="AC287" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC287" t="n">
+      <c r="AD287" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD287" t="n">
+      <c r="AE287" t="n">
         <v>7.32</v>
       </c>
     </row>
@@ -28729,17 +29592,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA288" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB288" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB288" t="inlineStr">
+      <c r="AC288" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC288" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD288" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE288" t="n">
         <v>7.57</v>
       </c>
     </row>
@@ -28827,17 +29693,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA289" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB289" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB289" t="inlineStr">
+      <c r="AC289" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC289" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD289" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE289" t="n">
         <v>7.67</v>
       </c>
     </row>
@@ -28925,17 +29794,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA290" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB290" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB290" t="inlineStr">
+      <c r="AC290" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC290" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD290" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE290" t="n">
         <v>7.63</v>
       </c>
     </row>
@@ -29023,17 +29895,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA291" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB291" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB291" t="inlineStr">
+      <c r="AC291" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC291" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD291" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE291" t="n">
         <v>7.69</v>
       </c>
     </row>
@@ -29121,17 +29996,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA292" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB292" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB292" t="inlineStr">
+      <c r="AC292" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC292" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD292" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE292" t="n">
         <v>7.72</v>
       </c>
     </row>
@@ -29219,17 +30097,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA293" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB293" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB293" t="inlineStr">
+      <c r="AC293" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC293" t="n">
+      <c r="AD293" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD293" t="n">
+      <c r="AE293" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -29317,17 +30198,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA294" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB294" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB294" t="inlineStr">
+      <c r="AC294" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC294" t="n">
+      <c r="AD294" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD294" t="n">
+      <c r="AE294" t="n">
         <v>7.47</v>
       </c>
     </row>
@@ -29415,17 +30299,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA295" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB295" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB295" t="inlineStr">
+      <c r="AC295" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC295" t="n">
+      <c r="AD295" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD295" t="n">
+      <c r="AE295" t="n">
         <v>7.54</v>
       </c>
     </row>
@@ -29519,17 +30406,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA296" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB296" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB296" t="inlineStr">
+      <c r="AC296" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="AC296" t="n">
+      <c r="AD296" t="n">
         <v>6.7404</v>
       </c>
-      <c r="AD296" t="n">
+      <c r="AE296" t="n">
         <v>5.39</v>
       </c>
     </row>
@@ -29623,17 +30513,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA297" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB297" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB297" t="inlineStr">
+      <c r="AC297" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC297" t="n">
+      <c r="AD297" t="n">
         <v>5.754</v>
       </c>
-      <c r="AD297" t="n">
+      <c r="AE297" t="n">
         <v>5.39</v>
       </c>
     </row>
@@ -29721,17 +30614,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA298" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB298" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB298" t="inlineStr">
+      <c r="AC298" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="AC298" t="n">
+      <c r="AD298" t="n">
         <v>7.5624</v>
       </c>
-      <c r="AD298" t="n">
+      <c r="AE298" t="n">
         <v>5.39</v>
       </c>
     </row>
@@ -29819,17 +30715,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA299" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB299" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB299" t="inlineStr">
+      <c r="AC299" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC299" t="n">
+      <c r="AD299" t="n">
         <v>5.754</v>
       </c>
-      <c r="AD299" t="n">
+      <c r="AE299" t="n">
         <v>5.15</v>
       </c>
     </row>
@@ -29917,17 +30816,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA300" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB300" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB300" t="inlineStr">
+      <c r="AC300" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC300" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD300" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE300" t="n">
         <v>5.76</v>
       </c>
     </row>
@@ -30015,17 +30917,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA301" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB301" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB301" t="inlineStr">
+      <c r="AC301" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC301" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD301" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE301" t="n">
         <v>6.16</v>
       </c>
     </row>
@@ -30113,17 +31018,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA302" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB302" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB302" t="inlineStr">
+      <c r="AC302" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC302" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD302" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE302" t="n">
         <v>6.02</v>
       </c>
     </row>
@@ -30211,17 +31119,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA303" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB303" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB303" t="inlineStr">
+      <c r="AC303" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC303" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD303" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE303" t="n">
         <v>5.97</v>
       </c>
     </row>
@@ -30309,17 +31220,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA304" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB304" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB304" t="inlineStr">
+      <c r="AC304" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC304" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD304" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE304" t="n">
         <v>5.867</v>
       </c>
     </row>
@@ -30407,17 +31321,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA305" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB305" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB305" t="inlineStr">
+      <c r="AC305" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC305" t="n">
+      <c r="AD305" t="n">
         <v>5.754</v>
       </c>
-      <c r="AD305" t="n">
+      <c r="AE305" t="n">
         <v>5.591</v>
       </c>
     </row>
@@ -30505,17 +31422,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA306" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB306" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB306" t="inlineStr">
+      <c r="AC306" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="AC306" t="n">
+      <c r="AD306" t="n">
         <v>5.754</v>
       </c>
-      <c r="AD306" t="n">
+      <c r="AE306" t="n">
         <v>5.736</v>
       </c>
     </row>
@@ -30535,7 +31455,7 @@
         <v>5.811</v>
       </c>
       <c r="E307" t="n">
-        <v>5.905</v>
+        <v>5.912</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -30603,17 +31523,20 @@
         <v>3.4524</v>
       </c>
       <c r="AA307" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB307" t="n">
         <v>9.24</v>
       </c>
-      <c r="AB307" t="inlineStr">
+      <c r="AC307" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC307" t="n">
-        <v>3.4524</v>
-      </c>
       <c r="AD307" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE307" t="n">
         <v>5.811</v>
       </c>
     </row>

--- a/debug/TRUMP_debug.xlsx
+++ b/debug/TRUMP_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE307"/>
+  <dimension ref="A1:AE314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31449,13 +31449,13 @@
         <v>5.878</v>
       </c>
       <c r="C307" t="n">
-        <v>5.965</v>
+        <v>5.998</v>
       </c>
       <c r="D307" t="n">
         <v>5.811</v>
       </c>
       <c r="E307" t="n">
-        <v>5.912</v>
+        <v>5.953</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>5.15</v>
       </c>
       <c r="Q307" t="n">
-        <v>15.825243</v>
+        <v>16.466019</v>
       </c>
       <c r="R307" t="n">
         <v>52.7</v>
@@ -31538,6 +31538,713 @@
       </c>
       <c r="AE307" t="n">
         <v>5.811</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>5.954</v>
+      </c>
+      <c r="C308" t="n">
+        <v>6.058</v>
+      </c>
+      <c r="D308" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="E308" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G308" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" t="n">
+        <v>5</v>
+      </c>
+      <c r="I308" t="n">
+        <v/>
+      </c>
+      <c r="J308" t="n">
+        <v/>
+      </c>
+      <c r="K308" t="n">
+        <v/>
+      </c>
+      <c r="L308" t="n">
+        <v/>
+      </c>
+      <c r="M308" t="n">
+        <v/>
+      </c>
+      <c r="N308" t="n">
+        <v/>
+      </c>
+      <c r="O308" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="P308" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>17.631068</v>
+      </c>
+      <c r="R308" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S308" t="n">
+        <v>7</v>
+      </c>
+      <c r="T308" t="n">
+        <v>9.2064</v>
+      </c>
+      <c r="U308" t="n">
+        <v>8.5488</v>
+      </c>
+      <c r="V308" t="n">
+        <v>7.5624</v>
+      </c>
+      <c r="W308" t="n">
+        <v>6.7404</v>
+      </c>
+      <c r="X308" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>4.6032</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AC308" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD308" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>5.879</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>5.977</v>
+      </c>
+      <c r="C309" t="n">
+        <v>6.207</v>
+      </c>
+      <c r="D309" t="n">
+        <v>5.816</v>
+      </c>
+      <c r="E309" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" t="n">
+        <v>5</v>
+      </c>
+      <c r="I309" t="n">
+        <v/>
+      </c>
+      <c r="J309" t="n">
+        <v/>
+      </c>
+      <c r="K309" t="n">
+        <v/>
+      </c>
+      <c r="L309" t="n">
+        <v/>
+      </c>
+      <c r="M309" t="n">
+        <v/>
+      </c>
+      <c r="N309" t="n">
+        <v/>
+      </c>
+      <c r="O309" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="P309" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>20.524272</v>
+      </c>
+      <c r="R309" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S309" t="n">
+        <v>7</v>
+      </c>
+      <c r="T309" t="n">
+        <v>9.2064</v>
+      </c>
+      <c r="U309" t="n">
+        <v>8.5488</v>
+      </c>
+      <c r="V309" t="n">
+        <v>7.5624</v>
+      </c>
+      <c r="W309" t="n">
+        <v>6.7404</v>
+      </c>
+      <c r="X309" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>4.6032</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AC309" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD309" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>5.816</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C310" t="n">
+        <v>5.904</v>
+      </c>
+      <c r="D310" t="n">
+        <v>5.554</v>
+      </c>
+      <c r="E310" t="n">
+        <v>5.715</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G310" t="b">
+        <v>1</v>
+      </c>
+      <c r="H310" t="n">
+        <v>5</v>
+      </c>
+      <c r="I310" t="n">
+        <v/>
+      </c>
+      <c r="J310" t="n">
+        <v/>
+      </c>
+      <c r="K310" t="n">
+        <v/>
+      </c>
+      <c r="L310" t="n">
+        <v/>
+      </c>
+      <c r="M310" t="n">
+        <v/>
+      </c>
+      <c r="N310" t="n">
+        <v/>
+      </c>
+      <c r="O310" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="P310" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>14.640777</v>
+      </c>
+      <c r="R310" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S310" t="n">
+        <v>7</v>
+      </c>
+      <c r="T310" t="n">
+        <v>9.2064</v>
+      </c>
+      <c r="U310" t="n">
+        <v>8.5488</v>
+      </c>
+      <c r="V310" t="n">
+        <v>7.5624</v>
+      </c>
+      <c r="W310" t="n">
+        <v>6.7404</v>
+      </c>
+      <c r="X310" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>4.6032</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AC310" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="AD310" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>5.554</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>5.715</v>
+      </c>
+      <c r="C311" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D311" t="n">
+        <v>5.712</v>
+      </c>
+      <c r="E311" t="n">
+        <v>5.861</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G311" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" t="n">
+        <v>5</v>
+      </c>
+      <c r="I311" t="n">
+        <v/>
+      </c>
+      <c r="J311" t="n">
+        <v/>
+      </c>
+      <c r="K311" t="n">
+        <v/>
+      </c>
+      <c r="L311" t="n">
+        <v/>
+      </c>
+      <c r="M311" t="n">
+        <v/>
+      </c>
+      <c r="N311" t="n">
+        <v/>
+      </c>
+      <c r="O311" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="P311" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>17.281553</v>
+      </c>
+      <c r="R311" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S311" t="n">
+        <v>7</v>
+      </c>
+      <c r="T311" t="n">
+        <v>9.2064</v>
+      </c>
+      <c r="U311" t="n">
+        <v>8.5488</v>
+      </c>
+      <c r="V311" t="n">
+        <v>7.5624</v>
+      </c>
+      <c r="W311" t="n">
+        <v>6.7404</v>
+      </c>
+      <c r="X311" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>4.6032</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AC311" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="AD311" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>5.712</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>5.861</v>
+      </c>
+      <c r="C312" t="n">
+        <v>5.974</v>
+      </c>
+      <c r="D312" t="n">
+        <v>5.835</v>
+      </c>
+      <c r="E312" t="n">
+        <v>5.959</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G312" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" t="n">
+        <v>5</v>
+      </c>
+      <c r="I312" t="n">
+        <v/>
+      </c>
+      <c r="J312" t="n">
+        <v/>
+      </c>
+      <c r="K312" t="n">
+        <v/>
+      </c>
+      <c r="L312" t="n">
+        <v/>
+      </c>
+      <c r="M312" t="n">
+        <v/>
+      </c>
+      <c r="N312" t="n">
+        <v/>
+      </c>
+      <c r="O312" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="P312" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>16</v>
+      </c>
+      <c r="R312" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S312" t="n">
+        <v>7</v>
+      </c>
+      <c r="T312" t="n">
+        <v>9.2064</v>
+      </c>
+      <c r="U312" t="n">
+        <v>8.5488</v>
+      </c>
+      <c r="V312" t="n">
+        <v>7.5624</v>
+      </c>
+      <c r="W312" t="n">
+        <v>6.7404</v>
+      </c>
+      <c r="X312" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>4.6032</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AC312" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>5.835</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>5.959</v>
+      </c>
+      <c r="C313" t="n">
+        <v>6.027</v>
+      </c>
+      <c r="D313" t="n">
+        <v>5.903</v>
+      </c>
+      <c r="E313" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" t="n">
+        <v>5</v>
+      </c>
+      <c r="I313" t="n">
+        <v/>
+      </c>
+      <c r="J313" t="n">
+        <v/>
+      </c>
+      <c r="K313" t="n">
+        <v/>
+      </c>
+      <c r="L313" t="n">
+        <v/>
+      </c>
+      <c r="M313" t="n">
+        <v/>
+      </c>
+      <c r="N313" t="n">
+        <v/>
+      </c>
+      <c r="O313" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="P313" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>17.029126</v>
+      </c>
+      <c r="R313" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S313" t="n">
+        <v>7</v>
+      </c>
+      <c r="T313" t="n">
+        <v>9.2064</v>
+      </c>
+      <c r="U313" t="n">
+        <v>8.5488</v>
+      </c>
+      <c r="V313" t="n">
+        <v>7.5624</v>
+      </c>
+      <c r="W313" t="n">
+        <v>6.7404</v>
+      </c>
+      <c r="X313" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>4.6032</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AC313" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>5.903</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="C314" t="n">
+        <v>6.234</v>
+      </c>
+      <c r="D314" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E314" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G314" t="b">
+        <v>1</v>
+      </c>
+      <c r="H314" t="n">
+        <v>5</v>
+      </c>
+      <c r="I314" t="n">
+        <v/>
+      </c>
+      <c r="J314" t="n">
+        <v/>
+      </c>
+      <c r="K314" t="n">
+        <v/>
+      </c>
+      <c r="L314" t="n">
+        <v/>
+      </c>
+      <c r="M314" t="n">
+        <v/>
+      </c>
+      <c r="N314" t="n">
+        <v/>
+      </c>
+      <c r="O314" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="P314" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>21.048544</v>
+      </c>
+      <c r="R314" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S314" t="n">
+        <v>7</v>
+      </c>
+      <c r="T314" t="n">
+        <v>9.2064</v>
+      </c>
+      <c r="U314" t="n">
+        <v>8.5488</v>
+      </c>
+      <c r="V314" t="n">
+        <v>7.5624</v>
+      </c>
+      <c r="W314" t="n">
+        <v>6.7404</v>
+      </c>
+      <c r="X314" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>4.6032</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>3.1236</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AC314" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD314" t="n">
+        <v>3.4524</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>
